--- a/Marker_for_segments_v3.xlsx
+++ b/Marker_for_segments_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OLE_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OLE_APP_stable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3B7C0C-0186-4EE7-8E20-53A3092F9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4B6F1-899F-4FF3-82C4-4B3C0EE57064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIP" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="FOOT" sheetId="4" r:id="rId4"/>
     <sheet name="MTP" sheetId="5" r:id="rId5"/>
     <sheet name="DISTAL_Marker" sheetId="6" r:id="rId6"/>
+    <sheet name="TORSO" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>SIPS_right</t>
   </si>
@@ -249,6 +250,30 @@
   </si>
   <si>
     <t>L5MTP</t>
+  </si>
+  <si>
+    <t>C_7</t>
+  </si>
+  <si>
+    <t>B_10</t>
+  </si>
+  <si>
+    <t>sternum</t>
+  </si>
+  <si>
+    <t>clav</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>STERNUM</t>
+  </si>
+  <si>
+    <t>XYPHOID</t>
   </si>
 </sst>
 </file>
@@ -568,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +970,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,4 +1062,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CD1CCC-83C6-4029-A1FE-E999CE91AF66}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Marker_for_segments_v3.xlsx
+++ b/Marker_for_segments_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OLE_APP_stable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4B6F1-899F-4FF3-82C4-4B3C0EE57064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130F779-408F-419F-88C2-D030D847BC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIP" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="MTP" sheetId="5" r:id="rId5"/>
     <sheet name="DISTAL_Marker" sheetId="6" r:id="rId6"/>
     <sheet name="TORSO" sheetId="7" r:id="rId7"/>
+    <sheet name="MARKERSREQUIRED" sheetId="8" r:id="rId8"/>
+    <sheet name="R_FEMUR" sheetId="9" r:id="rId9"/>
+    <sheet name="L_FEMUR" sheetId="10" r:id="rId10"/>
+    <sheet name="R_TIBIA" sheetId="11" r:id="rId11"/>
+    <sheet name="L_TIBIA" sheetId="12" r:id="rId12"/>
+    <sheet name="HEAD" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
   <si>
     <t>SIPS_right</t>
   </si>
@@ -274,6 +280,120 @@
   </si>
   <si>
     <t>XYPHOID</t>
+  </si>
+  <si>
+    <t>cluster_femur_right_1</t>
+  </si>
+  <si>
+    <t>cluster_femur_right_2</t>
+  </si>
+  <si>
+    <t>cluster_femur_right_3</t>
+  </si>
+  <si>
+    <t>cluster_femur_right_4</t>
+  </si>
+  <si>
+    <t>RAT</t>
+  </si>
+  <si>
+    <t>RLT</t>
+  </si>
+  <si>
+    <t>RDAT</t>
+  </si>
+  <si>
+    <t>JONATAN</t>
+  </si>
+  <si>
+    <t>RT3</t>
+  </si>
+  <si>
+    <t>cluster_femur_left_1</t>
+  </si>
+  <si>
+    <t>cluster_femur_left_2</t>
+  </si>
+  <si>
+    <t>cluster_femur_left_3</t>
+  </si>
+  <si>
+    <t>cluster_femur_left_4</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LLT</t>
+  </si>
+  <si>
+    <t>LDAT</t>
+  </si>
+  <si>
+    <t>LT3</t>
+  </si>
+  <si>
+    <t>cluster_tibia_right_1</t>
+  </si>
+  <si>
+    <t>cluster_tibia_right_2</t>
+  </si>
+  <si>
+    <t>cluster_tibia_right_3</t>
+  </si>
+  <si>
+    <t>cluster_tibia_right_4</t>
+  </si>
+  <si>
+    <t>RTT</t>
+  </si>
+  <si>
+    <t>RFH</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>cluster_tibia_left_1</t>
+  </si>
+  <si>
+    <t>cluster_tibia_left_3</t>
+  </si>
+  <si>
+    <t>cluster_tibia_left_4</t>
+  </si>
+  <si>
+    <t>LTT</t>
+  </si>
+  <si>
+    <t>LFH</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>head_front_left</t>
+  </si>
+  <si>
+    <t>head_back_left</t>
+  </si>
+  <si>
+    <t>head_back_right</t>
+  </si>
+  <si>
+    <t>LFRONTAL</t>
+  </si>
+  <si>
+    <t>LOCCIPUT</t>
+  </si>
+  <si>
+    <t>ROCCIPUT</t>
   </si>
 </sst>
 </file>
@@ -594,7 +714,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,6 +781,242 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA49C8C-AC6E-4E4D-91B1-75EAF45429BA}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B11A073-70C5-4587-A198-149B5D55CEB4}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24944A94-B842-4EAF-85F6-9A0797EB41D9}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B2FFC-5EBD-41AA-AFAF-CCBEFB1F6969}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -793,7 +1149,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G2" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,7 +1326,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CD1CCC-83C6-4029-A1FE-E999CE91AF66}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,4 +1472,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EFE0A0-404E-4C57-B4C6-A19467157889}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306B14A0-0A89-4F4A-9BF8-E6827C3FC7C6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>